--- a/documentos/ciclo1/Claudia Vargas/TASK_claudia.xlsx
+++ b/documentos/ciclo1/Claudia Vargas/TASK_claudia.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\tsp\documentos\ciclo1\Claudia Vargas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="19440" windowHeight="7695"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -159,9 +164,6 @@
     <t>LAU1</t>
   </si>
   <si>
-    <t>Fabián Eduardo Becerra Pérez</t>
-  </si>
-  <si>
     <t>Generar acta de reunión de documentación de estrategia y criterios</t>
   </si>
   <si>
@@ -202,6 +204,9 @@
   </si>
   <si>
     <t>planeado equipo</t>
+  </si>
+  <si>
+    <t>Claudia Vargas</t>
   </si>
 </sst>
 </file>
@@ -493,18 +498,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,33 +548,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,6 +558,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -601,7 +609,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,7 +644,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -847,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,12 +877,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -883,201 +891,201 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="26"/>
+      <c r="B3" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="35"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="37">
         <v>41719</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="E5" s="33">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="31" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="4"/>
@@ -1126,7 +1134,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
         <v>25</v>
@@ -1173,7 +1181,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>26</v>
@@ -1220,7 +1228,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="7"/>
@@ -1269,7 +1277,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
         <v>28</v>
@@ -1316,10 +1324,10 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="10">
         <v>0.7</v>
@@ -1363,7 +1371,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="7"/>
@@ -1412,7 +1420,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
         <v>30</v>
@@ -1459,10 +1467,10 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="10">
         <v>0.5</v>
@@ -1506,7 +1514,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
         <v>31</v>
@@ -1553,7 +1561,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
         <v>32</v>
@@ -1600,7 +1608,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5" t="s">
         <v>33</v>
@@ -1647,10 +1655,10 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="10">
         <v>2</v>
@@ -1682,10 +1690,10 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="10">
         <v>0.5</v>
@@ -1716,12 +1724,12 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
@@ -1752,10 +1760,10 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
@@ -1786,7 +1794,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="7"/>
       <c r="C30" s="5" t="s">
         <v>34</v>
@@ -1820,10 +1828,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
@@ -1852,7 +1860,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5" t="s">
         <v>35</v>
@@ -1886,10 +1894,10 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="7"/>
       <c r="C33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -1916,10 +1924,10 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="7"/>
       <c r="C34" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="10">
         <v>0.5</v>
@@ -1950,7 +1958,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="7"/>
@@ -1986,10 +1994,10 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
@@ -2016,10 +2024,10 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="7"/>
       <c r="C37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37" s="10">
         <v>2</v>
@@ -2050,7 +2058,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="7"/>
@@ -2086,7 +2094,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12" t="s">
         <v>38</v>
@@ -2142,22 +2150,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E8:E13"/>
@@ -2174,6 +2166,22 @@
     <mergeCell ref="I8:I13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
